--- a/output/CARIN-BB-Patient.xlsx
+++ b/output/CARIN-BB-Patient.xlsx
@@ -641,9 +641,11 @@
     <t>memberid</t>
   </si>
   <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;code value="MB"/&gt;
-&lt;/valueCoding&gt;</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;code value="MB"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
@@ -655,17 +657,21 @@
     <t>medrecnum</t>
   </si>
   <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;code value="MR"/&gt;
-&lt;/valueCoding&gt;</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;code value="MR"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>patacctnum</t>
   </si>
   <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;code value="PT"/&gt;
-&lt;/valueCoding&gt;</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;code value="PT"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Patient.active</t>
